--- a/data/trans_orig/P14A01-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P14A01-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C749FDDD-DB93-4856-A45D-B49499BE8E4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{80AB61A2-8FAF-4CED-88C0-BC9470959D19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{1BE432D0-257D-4976-A253-CEEE6D1C1E3B}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{2B8180C3-C476-4E12-B026-AF8FFAE6EC4C}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -90,7 +90,7 @@
     <t>58,81%</t>
   </si>
   <si>
-    <t>18,48%</t>
+    <t>18,61%</t>
   </si>
   <si>
     <t>No</t>
@@ -108,7 +108,7 @@
     <t>41,19%</t>
   </si>
   <si>
-    <t>81,52%</t>
+    <t>81,39%</t>
   </si>
   <si>
     <t>2/10</t>
@@ -117,49 +117,49 @@
     <t>68,12%</t>
   </si>
   <si>
-    <t>18,65%</t>
+    <t>17,85%</t>
   </si>
   <si>
     <t>44,11%</t>
   </si>
   <si>
-    <t>13,83%</t>
-  </si>
-  <si>
-    <t>86,38%</t>
+    <t>14,13%</t>
+  </si>
+  <si>
+    <t>84,9%</t>
   </si>
   <si>
     <t>55,21%</t>
   </si>
   <si>
-    <t>24,59%</t>
-  </si>
-  <si>
-    <t>84,4%</t>
+    <t>23,91%</t>
+  </si>
+  <si>
+    <t>78,56%</t>
   </si>
   <si>
     <t>31,88%</t>
   </si>
   <si>
-    <t>81,35%</t>
+    <t>82,15%</t>
   </si>
   <si>
     <t>55,89%</t>
   </si>
   <si>
-    <t>13,62%</t>
-  </si>
-  <si>
-    <t>86,17%</t>
+    <t>15,1%</t>
+  </si>
+  <si>
+    <t>85,87%</t>
   </si>
   <si>
     <t>44,79%</t>
   </si>
   <si>
-    <t>15,6%</t>
-  </si>
-  <si>
-    <t>75,41%</t>
+    <t>21,44%</t>
+  </si>
+  <si>
+    <t>76,09%</t>
   </si>
   <si>
     <t>10/50</t>
@@ -174,19 +174,19 @@
     <t>67,85%</t>
   </si>
   <si>
-    <t>44,72%</t>
-  </si>
-  <si>
-    <t>84,83%</t>
+    <t>40,44%</t>
+  </si>
+  <si>
+    <t>84,42%</t>
   </si>
   <si>
     <t>73,07%</t>
   </si>
   <si>
-    <t>53,31%</t>
-  </si>
-  <si>
-    <t>88,73%</t>
+    <t>51,44%</t>
+  </si>
+  <si>
+    <t>88,24%</t>
   </si>
   <si>
     <t>13,66%</t>
@@ -198,19 +198,19 @@
     <t>32,15%</t>
   </si>
   <si>
-    <t>15,17%</t>
-  </si>
-  <si>
-    <t>55,28%</t>
+    <t>15,58%</t>
+  </si>
+  <si>
+    <t>59,56%</t>
   </si>
   <si>
     <t>26,93%</t>
   </si>
   <si>
-    <t>11,27%</t>
-  </si>
-  <si>
-    <t>46,69%</t>
+    <t>11,76%</t>
+  </si>
+  <si>
+    <t>48,56%</t>
   </si>
   <si>
     <t>mas de 50</t>
@@ -219,49 +219,49 @@
     <t>31,15%</t>
   </si>
   <si>
-    <t>73,67%</t>
+    <t>73,77%</t>
   </si>
   <si>
     <t>60,15%</t>
   </si>
   <si>
-    <t>29,13%</t>
-  </si>
-  <si>
-    <t>90,14%</t>
+    <t>29,51%</t>
+  </si>
+  <si>
+    <t>90,01%</t>
   </si>
   <si>
     <t>50,28%</t>
   </si>
   <si>
-    <t>27,52%</t>
-  </si>
-  <si>
-    <t>75,26%</t>
+    <t>27,12%</t>
+  </si>
+  <si>
+    <t>73,05%</t>
   </si>
   <si>
     <t>68,85%</t>
   </si>
   <si>
-    <t>26,33%</t>
+    <t>26,23%</t>
   </si>
   <si>
     <t>39,85%</t>
   </si>
   <si>
-    <t>9,86%</t>
-  </si>
-  <si>
-    <t>70,87%</t>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>70,49%</t>
   </si>
   <si>
     <t>49,72%</t>
   </si>
   <si>
-    <t>24,74%</t>
-  </si>
-  <si>
-    <t>72,48%</t>
+    <t>26,95%</t>
+  </si>
+  <si>
+    <t>72,88%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -270,109 +270,109 @@
     <t>65,73%</t>
   </si>
   <si>
-    <t>38,54%</t>
-  </si>
-  <si>
-    <t>88,14%</t>
+    <t>39,06%</t>
+  </si>
+  <si>
+    <t>85,97%</t>
   </si>
   <si>
     <t>42,61%</t>
   </si>
   <si>
-    <t>22,96%</t>
-  </si>
-  <si>
-    <t>64,3%</t>
+    <t>25,06%</t>
+  </si>
+  <si>
+    <t>64,67%</t>
   </si>
   <si>
     <t>51,58%</t>
   </si>
   <si>
-    <t>35,17%</t>
-  </si>
-  <si>
-    <t>66,68%</t>
+    <t>35,05%</t>
+  </si>
+  <si>
+    <t>67,1%</t>
   </si>
   <si>
     <t>34,27%</t>
   </si>
   <si>
-    <t>11,86%</t>
-  </si>
-  <si>
-    <t>61,46%</t>
+    <t>14,03%</t>
+  </si>
+  <si>
+    <t>60,94%</t>
   </si>
   <si>
     <t>57,39%</t>
   </si>
   <si>
-    <t>35,7%</t>
-  </si>
-  <si>
-    <t>77,04%</t>
+    <t>35,33%</t>
+  </si>
+  <si>
+    <t>74,94%</t>
   </si>
   <si>
     <t>48,42%</t>
   </si>
   <si>
-    <t>33,32%</t>
-  </si>
-  <si>
-    <t>64,83%</t>
+    <t>32,9%</t>
+  </si>
+  <si>
+    <t>64,95%</t>
   </si>
   <si>
     <t>65,0%</t>
   </si>
   <si>
-    <t>49,57%</t>
-  </si>
-  <si>
-    <t>80,2%</t>
+    <t>47,55%</t>
+  </si>
+  <si>
+    <t>78,75%</t>
   </si>
   <si>
     <t>53,25%</t>
   </si>
   <si>
-    <t>41,79%</t>
-  </si>
-  <si>
-    <t>65,74%</t>
+    <t>40,99%</t>
+  </si>
+  <si>
+    <t>65,92%</t>
   </si>
   <si>
     <t>57,4%</t>
   </si>
   <si>
-    <t>46,8%</t>
-  </si>
-  <si>
-    <t>66,65%</t>
+    <t>47,21%</t>
+  </si>
+  <si>
+    <t>68,07%</t>
   </si>
   <si>
     <t>35,0%</t>
   </si>
   <si>
-    <t>19,8%</t>
-  </si>
-  <si>
-    <t>50,43%</t>
+    <t>21,25%</t>
+  </si>
+  <si>
+    <t>52,45%</t>
   </si>
   <si>
     <t>46,75%</t>
   </si>
   <si>
-    <t>34,26%</t>
-  </si>
-  <si>
-    <t>58,21%</t>
+    <t>34,08%</t>
+  </si>
+  <si>
+    <t>59,01%</t>
   </si>
   <si>
     <t>42,6%</t>
   </si>
   <si>
-    <t>33,35%</t>
-  </si>
-  <si>
-    <t>53,2%</t>
+    <t>31,93%</t>
+  </si>
+  <si>
+    <t>52,79%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1054,7 +1054,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFF63BBD-1B1B-4A1A-92DD-D5477093F2CC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8AABE41-64D5-4591-8F69-6BFEB7CBD16A}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2117,7 +2117,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5EDCEAE7-D8F6-4733-B85A-3A64EEB4A958}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CFDCACB-A19D-4CA4-8333-FA04F91EFF44}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/data/trans_orig/P14A01-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P14A01-Habitat-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{80AB61A2-8FAF-4CED-88C0-BC9470959D19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D390DB71-849C-40AC-9833-2FF729D39279}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{2B8180C3-C476-4E12-B026-AF8FFAE6EC4C}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{67E1808E-9947-4EA1-AAF0-BEF2564FE088}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -66,7 +66,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Si</t>
@@ -90,7 +90,7 @@
     <t>58,81%</t>
   </si>
   <si>
-    <t>18,61%</t>
+    <t>18,48%</t>
   </si>
   <si>
     <t>No</t>
@@ -108,160 +108,160 @@
     <t>41,19%</t>
   </si>
   <si>
-    <t>81,39%</t>
-  </si>
-  <si>
-    <t>2/10</t>
+    <t>81,52%</t>
+  </si>
+  <si>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>68,12%</t>
   </si>
   <si>
-    <t>17,85%</t>
+    <t>17,69%</t>
   </si>
   <si>
     <t>44,11%</t>
   </si>
   <si>
-    <t>14,13%</t>
-  </si>
-  <si>
-    <t>84,9%</t>
+    <t>13,71%</t>
+  </si>
+  <si>
+    <t>86,24%</t>
   </si>
   <si>
     <t>55,21%</t>
   </si>
   <si>
-    <t>23,91%</t>
-  </si>
-  <si>
-    <t>78,56%</t>
+    <t>24,94%</t>
+  </si>
+  <si>
+    <t>78,97%</t>
   </si>
   <si>
     <t>31,88%</t>
   </si>
   <si>
-    <t>82,15%</t>
+    <t>82,31%</t>
   </si>
   <si>
     <t>55,89%</t>
   </si>
   <si>
-    <t>15,1%</t>
-  </si>
-  <si>
-    <t>85,87%</t>
+    <t>13,76%</t>
+  </si>
+  <si>
+    <t>86,29%</t>
   </si>
   <si>
     <t>44,79%</t>
   </si>
   <si>
-    <t>21,44%</t>
-  </si>
-  <si>
-    <t>76,09%</t>
-  </si>
-  <si>
-    <t>10/50</t>
+    <t>21,03%</t>
+  </si>
+  <si>
+    <t>75,06%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
   </si>
   <si>
     <t>86,34%</t>
   </si>
   <si>
-    <t>34,04%</t>
+    <t>49,56%</t>
   </si>
   <si>
     <t>67,85%</t>
   </si>
   <si>
-    <t>40,44%</t>
-  </si>
-  <si>
-    <t>84,42%</t>
+    <t>44,8%</t>
+  </si>
+  <si>
+    <t>88,94%</t>
   </si>
   <si>
     <t>73,07%</t>
   </si>
   <si>
-    <t>51,44%</t>
-  </si>
-  <si>
-    <t>88,24%</t>
+    <t>53,5%</t>
+  </si>
+  <si>
+    <t>88,69%</t>
   </si>
   <si>
     <t>13,66%</t>
   </si>
   <si>
-    <t>65,96%</t>
+    <t>50,44%</t>
   </si>
   <si>
     <t>32,15%</t>
   </si>
   <si>
-    <t>15,58%</t>
-  </si>
-  <si>
-    <t>59,56%</t>
+    <t>11,06%</t>
+  </si>
+  <si>
+    <t>55,2%</t>
   </si>
   <si>
     <t>26,93%</t>
   </si>
   <si>
-    <t>11,76%</t>
-  </si>
-  <si>
-    <t>48,56%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
+    <t>11,31%</t>
+  </si>
+  <si>
+    <t>46,5%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
   </si>
   <si>
     <t>31,15%</t>
   </si>
   <si>
-    <t>73,77%</t>
+    <t>73,93%</t>
   </si>
   <si>
     <t>60,15%</t>
   </si>
   <si>
-    <t>29,51%</t>
-  </si>
-  <si>
-    <t>90,01%</t>
+    <t>28,94%</t>
+  </si>
+  <si>
+    <t>89,78%</t>
   </si>
   <si>
     <t>50,28%</t>
   </si>
   <si>
-    <t>27,12%</t>
-  </si>
-  <si>
-    <t>73,05%</t>
+    <t>24,61%</t>
+  </si>
+  <si>
+    <t>73,59%</t>
   </si>
   <si>
     <t>68,85%</t>
   </si>
   <si>
-    <t>26,23%</t>
+    <t>26,07%</t>
   </si>
   <si>
     <t>39,85%</t>
   </si>
   <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>70,49%</t>
+    <t>10,22%</t>
+  </si>
+  <si>
+    <t>71,06%</t>
   </si>
   <si>
     <t>49,72%</t>
   </si>
   <si>
-    <t>26,95%</t>
-  </si>
-  <si>
-    <t>72,88%</t>
+    <t>26,41%</t>
+  </si>
+  <si>
+    <t>75,39%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -270,115 +270,115 @@
     <t>65,73%</t>
   </si>
   <si>
-    <t>39,06%</t>
-  </si>
-  <si>
-    <t>85,97%</t>
+    <t>37,58%</t>
+  </si>
+  <si>
+    <t>84,73%</t>
   </si>
   <si>
     <t>42,61%</t>
   </si>
   <si>
-    <t>25,06%</t>
-  </si>
-  <si>
-    <t>64,67%</t>
+    <t>24,02%</t>
+  </si>
+  <si>
+    <t>63,04%</t>
   </si>
   <si>
     <t>51,58%</t>
   </si>
   <si>
-    <t>35,05%</t>
-  </si>
-  <si>
-    <t>67,1%</t>
+    <t>36,13%</t>
+  </si>
+  <si>
+    <t>67,35%</t>
   </si>
   <si>
     <t>34,27%</t>
   </si>
   <si>
-    <t>14,03%</t>
-  </si>
-  <si>
-    <t>60,94%</t>
+    <t>15,27%</t>
+  </si>
+  <si>
+    <t>62,42%</t>
   </si>
   <si>
     <t>57,39%</t>
   </si>
   <si>
-    <t>35,33%</t>
-  </si>
-  <si>
-    <t>74,94%</t>
+    <t>36,96%</t>
+  </si>
+  <si>
+    <t>75,98%</t>
   </si>
   <si>
     <t>48,42%</t>
   </si>
   <si>
-    <t>32,9%</t>
-  </si>
-  <si>
-    <t>64,95%</t>
+    <t>32,65%</t>
+  </si>
+  <si>
+    <t>63,87%</t>
   </si>
   <si>
     <t>65,0%</t>
   </si>
   <si>
-    <t>47,55%</t>
-  </si>
-  <si>
-    <t>78,75%</t>
+    <t>48,79%</t>
+  </si>
+  <si>
+    <t>78,5%</t>
   </si>
   <si>
     <t>53,25%</t>
   </si>
   <si>
-    <t>40,99%</t>
-  </si>
-  <si>
-    <t>65,92%</t>
+    <t>40,08%</t>
+  </si>
+  <si>
+    <t>65,15%</t>
   </si>
   <si>
     <t>57,4%</t>
   </si>
   <si>
-    <t>47,21%</t>
-  </si>
-  <si>
-    <t>68,07%</t>
+    <t>47,57%</t>
+  </si>
+  <si>
+    <t>67,03%</t>
   </si>
   <si>
     <t>35,0%</t>
   </si>
   <si>
-    <t>21,25%</t>
-  </si>
-  <si>
-    <t>52,45%</t>
+    <t>21,5%</t>
+  </si>
+  <si>
+    <t>51,21%</t>
   </si>
   <si>
     <t>46,75%</t>
   </si>
   <si>
-    <t>34,08%</t>
-  </si>
-  <si>
-    <t>59,01%</t>
+    <t>34,85%</t>
+  </si>
+  <si>
+    <t>59,92%</t>
   </si>
   <si>
     <t>42,6%</t>
   </si>
   <si>
-    <t>31,93%</t>
-  </si>
-  <si>
-    <t>52,79%</t>
+    <t>32,97%</t>
+  </si>
+  <si>
+    <t>52,43%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
   </si>
   <si>
-    <t>Población que recibe medicación o terapia por cáncer en 2015 (Tasa respuesta: 1,43%)</t>
+    <t>Población que recibe medicación o terapia por cáncer en 2016 (Tasa respuesta: 1,43%)</t>
   </si>
   <si>
     <t>43,07%</t>
@@ -396,253 +396,253 @@
     <t>71,46%</t>
   </si>
   <si>
-    <t>13,03%</t>
+    <t>14,2%</t>
   </si>
   <si>
     <t>57,06%</t>
   </si>
   <si>
-    <t>30,91%</t>
-  </si>
-  <si>
-    <t>84,24%</t>
+    <t>28,32%</t>
+  </si>
+  <si>
+    <t>83,42%</t>
   </si>
   <si>
     <t>60,87%</t>
   </si>
   <si>
-    <t>34,99%</t>
-  </si>
-  <si>
-    <t>82,56%</t>
+    <t>36,34%</t>
+  </si>
+  <si>
+    <t>80,64%</t>
   </si>
   <si>
     <t>28,54%</t>
   </si>
   <si>
-    <t>86,97%</t>
+    <t>85,8%</t>
   </si>
   <si>
     <t>42,94%</t>
   </si>
   <si>
-    <t>15,76%</t>
-  </si>
-  <si>
-    <t>69,09%</t>
+    <t>16,58%</t>
+  </si>
+  <si>
+    <t>71,68%</t>
   </si>
   <si>
     <t>39,13%</t>
   </si>
   <si>
-    <t>17,44%</t>
-  </si>
-  <si>
-    <t>65,01%</t>
+    <t>19,36%</t>
+  </si>
+  <si>
+    <t>63,66%</t>
   </si>
   <si>
     <t>75,17%</t>
   </si>
   <si>
-    <t>36,43%</t>
+    <t>36,24%</t>
   </si>
   <si>
     <t>73,86%</t>
   </si>
   <si>
-    <t>46,56%</t>
-  </si>
-  <si>
-    <t>93,48%</t>
+    <t>43,82%</t>
+  </si>
+  <si>
+    <t>93,19%</t>
   </si>
   <si>
     <t>74,3%</t>
   </si>
   <si>
-    <t>53,41%</t>
-  </si>
-  <si>
-    <t>89,82%</t>
+    <t>52,08%</t>
+  </si>
+  <si>
+    <t>88,34%</t>
   </si>
   <si>
     <t>24,83%</t>
   </si>
   <si>
-    <t>63,57%</t>
+    <t>63,76%</t>
   </si>
   <si>
     <t>26,14%</t>
   </si>
   <si>
-    <t>6,52%</t>
-  </si>
-  <si>
-    <t>53,44%</t>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>56,18%</t>
   </si>
   <si>
     <t>25,7%</t>
   </si>
   <si>
-    <t>10,18%</t>
-  </si>
-  <si>
-    <t>46,59%</t>
+    <t>11,66%</t>
+  </si>
+  <si>
+    <t>47,92%</t>
   </si>
   <si>
     <t>42,45%</t>
   </si>
   <si>
-    <t>83,74%</t>
+    <t>83,52%</t>
   </si>
   <si>
     <t>63,99%</t>
   </si>
   <si>
-    <t>21,28%</t>
-  </si>
-  <si>
-    <t>89,3%</t>
+    <t>29,64%</t>
+  </si>
+  <si>
+    <t>89,45%</t>
   </si>
   <si>
     <t>57,2%</t>
   </si>
   <si>
-    <t>27,79%</t>
-  </si>
-  <si>
-    <t>80,49%</t>
+    <t>29,16%</t>
+  </si>
+  <si>
+    <t>80,8%</t>
   </si>
   <si>
     <t>57,55%</t>
   </si>
   <si>
-    <t>16,26%</t>
+    <t>16,48%</t>
   </si>
   <si>
     <t>36,01%</t>
   </si>
   <si>
-    <t>10,7%</t>
-  </si>
-  <si>
-    <t>78,72%</t>
+    <t>10,55%</t>
+  </si>
+  <si>
+    <t>70,36%</t>
   </si>
   <si>
     <t>42,8%</t>
   </si>
   <si>
-    <t>19,51%</t>
-  </si>
-  <si>
-    <t>72,21%</t>
+    <t>19,2%</t>
+  </si>
+  <si>
+    <t>70,84%</t>
   </si>
   <si>
     <t>68,4%</t>
   </si>
   <si>
-    <t>42,06%</t>
-  </si>
-  <si>
-    <t>92,03%</t>
+    <t>38,87%</t>
+  </si>
+  <si>
+    <t>91,9%</t>
   </si>
   <si>
     <t>76,34%</t>
   </si>
   <si>
-    <t>56,38%</t>
-  </si>
-  <si>
-    <t>91,13%</t>
+    <t>56,07%</t>
+  </si>
+  <si>
+    <t>89,56%</t>
   </si>
   <si>
     <t>74,12%</t>
   </si>
   <si>
-    <t>57,26%</t>
-  </si>
-  <si>
-    <t>85,88%</t>
+    <t>58,25%</t>
+  </si>
+  <si>
+    <t>85,82%</t>
   </si>
   <si>
     <t>31,6%</t>
   </si>
   <si>
-    <t>7,97%</t>
-  </si>
-  <si>
-    <t>57,94%</t>
+    <t>8,1%</t>
+  </si>
+  <si>
+    <t>61,13%</t>
   </si>
   <si>
     <t>23,66%</t>
   </si>
   <si>
-    <t>8,87%</t>
-  </si>
-  <si>
-    <t>43,62%</t>
+    <t>10,44%</t>
+  </si>
+  <si>
+    <t>43,93%</t>
   </si>
   <si>
     <t>25,88%</t>
   </si>
   <si>
-    <t>14,12%</t>
-  </si>
-  <si>
-    <t>42,74%</t>
+    <t>14,18%</t>
+  </si>
+  <si>
+    <t>41,75%</t>
   </si>
   <si>
     <t>67,56%</t>
   </si>
   <si>
-    <t>48,93%</t>
-  </si>
-  <si>
-    <t>84,41%</t>
+    <t>47,67%</t>
+  </si>
+  <si>
+    <t>81,65%</t>
   </si>
   <si>
     <t>70,76%</t>
   </si>
   <si>
-    <t>58,78%</t>
-  </si>
-  <si>
-    <t>80,57%</t>
+    <t>57,48%</t>
+  </si>
+  <si>
+    <t>81,88%</t>
   </si>
   <si>
     <t>69,82%</t>
   </si>
   <si>
-    <t>58,54%</t>
-  </si>
-  <si>
-    <t>78,48%</t>
+    <t>59,63%</t>
+  </si>
+  <si>
+    <t>78,42%</t>
   </si>
   <si>
     <t>32,44%</t>
   </si>
   <si>
-    <t>15,59%</t>
-  </si>
-  <si>
-    <t>51,07%</t>
+    <t>18,35%</t>
+  </si>
+  <si>
+    <t>52,33%</t>
   </si>
   <si>
     <t>29,24%</t>
   </si>
   <si>
-    <t>19,43%</t>
-  </si>
-  <si>
-    <t>41,22%</t>
+    <t>18,12%</t>
+  </si>
+  <si>
+    <t>42,52%</t>
   </si>
   <si>
     <t>30,18%</t>
   </si>
   <si>
-    <t>21,52%</t>
-  </si>
-  <si>
-    <t>41,46%</t>
+    <t>21,58%</t>
+  </si>
+  <si>
+    <t>40,37%</t>
   </si>
 </sst>
 </file>
@@ -1054,7 +1054,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8AABE41-64D5-4591-8F69-6BFEB7CBD16A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AA6204E-B78E-4DCE-B3A3-7D5EC14026D6}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2117,7 +2117,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CFDCACB-A19D-4CA4-8333-FA04F91EFF44}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C807F0E0-3CB0-44D2-9EBD-AB60828A1E3D}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3094,7 +3094,7 @@
         <v>28</v>
       </c>
       <c r="N20" s="7">
-        <v>30450</v>
+        <v>30451</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>199</v>
@@ -3145,7 +3145,7 @@
         <v>94</v>
       </c>
       <c r="N21" s="7">
-        <v>100884</v>
+        <v>100885</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>13</v>
